--- a/IPCC_Carbon_Calculations.xlsx
+++ b/IPCC_Carbon_Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/cmptrsn2_illinois_edu/Documents/Ch1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/cmptrsn2_illinois_edu/Documents/Chapter2/Floodplain-Experiment-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="687" documentId="8_{81C5A17B-0AA7-4E1F-9EEB-1F73114DAE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00B3CBB3-0C46-4F10-A41E-06B59E8E7ACD}"/>
+  <xr:revisionPtr revIDLastSave="949" documentId="8_{81C5A17B-0AA7-4E1F-9EEB-1F73114DAE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B212A6-596B-4800-AA6A-999BCFCD0375}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="16155" yWindow="6825" windowWidth="12150" windowHeight="20955" activeTab="1" xr2:uid="{2C906CBC-631A-4B26-833B-3AA2F3C7757D}"/>
+    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{2C906CBC-631A-4B26-833B-3AA2F3C7757D}"/>
   </bookViews>
   <sheets>
     <sheet name="Joslin estimates" sheetId="1" r:id="rId1"/>
@@ -602,20 +602,20 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -641,7 +641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -669,7 +669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -695,7 +695,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>35</v>
       </c>
@@ -728,12 +728,12 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>45</v>
       </c>
@@ -753,7 +753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>38</v>
       </c>
@@ -764,7 +764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>50</v>
       </c>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>51</v>
       </c>
@@ -781,7 +781,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>48</v>
       </c>
@@ -798,7 +798,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>47</v>
       </c>
@@ -809,7 +809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>52</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0.35602200000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>39</v>
       </c>
@@ -843,7 +843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -860,7 +860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>41</v>
       </c>
@@ -891,7 +891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>55</v>
       </c>
@@ -905,7 +905,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -925,7 +925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -945,7 +945,7 @@
         <v>75.55680000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -962,7 +962,7 @@
         <v>87.12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -979,7 +979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -999,7 +999,7 @@
         <v>14.879999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>8.5445280000000015</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>17.801100000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>205.54452800000001</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>236.80109999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>153.27252800000002</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>34</v>
       </c>
@@ -1177,17 +1177,17 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>35</v>
       </c>
@@ -1307,12 +1307,12 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>45</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>38</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>50</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>51</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>48</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>47</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>52</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0.35602200000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>39</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>41</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>55</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>75.55680000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>87.12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>5.8743630000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>17.801100000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>198.22436300000001</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>236.80109999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>145.95236299999999</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>34</v>
       </c>

--- a/IPCC_Carbon_Calculations.xlsx
+++ b/IPCC_Carbon_Calculations.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/cmptrsn2_illinois_edu/Documents/Chapter2/Floodplain-Experiment-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="949" documentId="8_{81C5A17B-0AA7-4E1F-9EEB-1F73114DAE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B212A6-596B-4800-AA6A-999BCFCD0375}"/>
+  <xr:revisionPtr revIDLastSave="1363" documentId="8_{81C5A17B-0AA7-4E1F-9EEB-1F73114DAE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3437609C-A3E7-4147-A064-41836BB593D1}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{2C906CBC-631A-4B26-833B-3AA2F3C7757D}"/>
+    <workbookView xWindow="42060" yWindow="-3015" windowWidth="15540" windowHeight="15750" xr2:uid="{2C906CBC-631A-4B26-833B-3AA2F3C7757D}"/>
   </bookViews>
   <sheets>
     <sheet name="Joslin estimates" sheetId="1" r:id="rId1"/>
-    <sheet name="Summer 2024 estimates" sheetId="2" r:id="rId2"/>
+    <sheet name="Harmon et al. 2023" sheetId="3" r:id="rId2"/>
+    <sheet name="Summer 2024 estimates" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>Natural wetlands</t>
   </si>
@@ -211,14 +212,111 @@
   </si>
   <si>
     <t>Mean age of older sites</t>
+  </si>
+  <si>
+    <t>Aboveground biomass</t>
+  </si>
+  <si>
+    <t>Aboveground carbon</t>
+  </si>
+  <si>
+    <t>Belowground carbon</t>
+  </si>
+  <si>
+    <t>Mean C stock estimate (Mg/ha)</t>
+  </si>
+  <si>
+    <t>Ratio of belowground to aboveground biomass (75-150 tonnes /ha)</t>
+  </si>
+  <si>
+    <t>Root ratio (R)</t>
+  </si>
+  <si>
+    <t>Aboveground woody biomass &lt;=20 y (t/ha)</t>
+  </si>
+  <si>
+    <t>Table 4.9 (2006 IPCC Guidelines for National Greenhouse Gas Inventories)</t>
+  </si>
+  <si>
+    <t>Table 4.3 (2006 IPCC Guidelines for National Greenhouse Gas Inventories)</t>
+  </si>
+  <si>
+    <t>Table 4.7 (2006 IPCC Guidelines for National Greenhouse Gas Inventories)</t>
+  </si>
+  <si>
+    <t>Table 4.4 (2006 IPCC Guidelines for National Greenhouse Gas Inventories)</t>
+  </si>
+  <si>
+    <t>Ratio of belowground to aboveground biomass (&lt;75 tonnes /ha)</t>
+  </si>
+  <si>
+    <t>Ratio of belowground to aboveground biomass (&gt;150 tonnes /ha)</t>
+  </si>
+  <si>
+    <t>Table 3.2.1 (IPCC Good Practice Guidance for LULUCF) / Table 2.2 (2006 IPCC Guidelines for National Greenhouse Gas Inventories)</t>
+  </si>
+  <si>
+    <t>Dead wood C concentration (%)</t>
+  </si>
+  <si>
+    <t>Harmon et al. (2013): Assumed angiosperms, do not know decay class or if standing v. downed</t>
+  </si>
+  <si>
+    <t>Decay class</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Downed</t>
+  </si>
+  <si>
+    <t>Standing</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Grand sum</t>
+  </si>
+  <si>
+    <t>Grand mean</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Grand min</t>
+  </si>
+  <si>
+    <t>Grand max</t>
+  </si>
+  <si>
+    <t>Total dead wood and litter</t>
+  </si>
+  <si>
+    <t>Table 5.5 (2006 IPCC Guidelines for National Greenhouse Gas Inventories)</t>
+  </si>
+  <si>
+    <t>Table 3.2.4/3.3.3 (IPCC Good Practice Guidance for LULUCF) / Table 2.3 (2006 IPCC Guidelines for National Greenhouse Gas Inventories)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -257,11 +355,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,6 +380,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,572 +703,712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECBA9F9-5B1E-4DE3-BE7E-98B24B386112}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="41.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="59" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="15.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="48.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="12" width="10" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="6">
         <v>1998</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>2022</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>0.69</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <f>D2-G2</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <f>D2+G2</f>
         <v>0.80999999999999994</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>0.12</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
+      <c r="H2" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <f>B2-B1</f>
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>0.92</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <f>D3-G3</f>
         <v>0.78</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <f>D3+G3</f>
         <v>1.06</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.82</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <f>D5-G5</f>
         <v>0.64999999999999991</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f>D5+G5</f>
         <v>0.99</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>0.17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D7">
-        <f>C25/$D$12</f>
+      <c r="D7" s="6">
+        <f>C26/$D$10</f>
         <v>0.26</v>
       </c>
-      <c r="E7">
-        <f>D25/$D$12</f>
+      <c r="E7" s="6">
+        <f>D26/$D$10</f>
         <v>0.04</v>
       </c>
-      <c r="F7">
-        <f>E25/$D$12</f>
+      <c r="F7" s="6">
+        <f>E26/$D$10</f>
         <v>0.62</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>34.700000000000003</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.434</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6">
         <v>50</v>
       </c>
-      <c r="D9">
+      <c r="H10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7">
+        <f>C28/$D$10</f>
+        <v>0.33173200000000003</v>
+      </c>
+      <c r="E11" s="7">
+        <f>D28/$D$10</f>
+        <v>0.30119600000000002</v>
+      </c>
+      <c r="F11" s="7">
+        <f>E28/$D$10</f>
+        <v>0.36088000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="6">
+        <v>130</v>
+      </c>
+      <c r="E15" s="6">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6">
+        <v>200</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="6">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <f>D8*D9</f>
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8">
+        <f>C24*D2*D3*D4</f>
+        <v>55.862400000000001</v>
+      </c>
+      <c r="D22" s="8">
+        <f>D24*E2*E3*E4</f>
+        <v>39.1248</v>
+      </c>
+      <c r="E22" s="8">
+        <f>E24*F2*F3*F4</f>
+        <v>75.55680000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8">
+        <f>C24*D5</f>
+        <v>72.16</v>
+      </c>
+      <c r="D23" s="8">
+        <f>D24*E5</f>
+        <v>57.199999999999989</v>
+      </c>
+      <c r="E23" s="8">
+        <f>E24*F5</f>
+        <v>87.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>88</v>
+      </c>
+      <c r="D24" s="8">
+        <v>88</v>
+      </c>
+      <c r="E24" s="8">
+        <v>88</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8">
+        <f>D7*$B$3</f>
+        <v>6.5</v>
+      </c>
+      <c r="D25" s="8">
+        <f>E7*$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <f>F7*$B$3</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="8">
+        <v>13</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>31</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8">
+        <f>D11*$B$3</f>
+        <v>8.2933000000000003</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" ref="D27:E27" si="0">E11*$B$3</f>
+        <v>7.5299000000000005</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>9.0220000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8">
+        <f>$D$8*D9</f>
+        <v>16.586600000000001</v>
+      </c>
+      <c r="D28" s="8">
+        <f>$D$8*E9</f>
+        <v>15.059800000000001</v>
+      </c>
+      <c r="E28" s="8">
+        <f>$D$8*F9</f>
+        <v>18.044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="8">
+        <f>C25+C27</f>
+        <v>14.7933</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" ref="D29:E29" si="1">D25+D27</f>
+        <v>8.5299000000000014</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="1"/>
+        <v>24.521999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="8">
+        <f>C26+C28</f>
+        <v>29.586600000000001</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" ref="D30:E30" si="2">D26+D28</f>
+        <v>17.059800000000003</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="2"/>
+        <v>49.043999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="8">
+        <f>D12*20+D13*5</f>
+        <v>100</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" ref="D31:E31" si="3">E12*20+E13*5</f>
+        <v>12.5</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="3"/>
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="6">
+        <f>D15</f>
+        <v>130</v>
+      </c>
+      <c r="D32" s="6">
+        <f>E15</f>
+        <v>50</v>
+      </c>
+      <c r="E32" s="6">
+        <f>F15</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="8">
+        <f>C31*D14</f>
         <v>48</v>
       </c>
-      <c r="D11">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="E11">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="F11">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D33" s="8">
+        <f>D31*E14</f>
+        <v>5.75</v>
+      </c>
+      <c r="E33" s="8">
+        <f>E31*F14</f>
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="8">
+        <f>C32*D14</f>
+        <v>62.4</v>
+      </c>
+      <c r="D34" s="8">
+        <f>D32*E14</f>
+        <v>23</v>
+      </c>
+      <c r="E34" s="8">
+        <f>E32*F14</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="7">
+        <f>IF(C31&lt;75, $D$17, IF(C31&gt;150, $D$19, $D$18))</f>
+        <v>0.23</v>
+      </c>
+      <c r="D35" s="7">
+        <f>IF(D31&lt;75, $E$17, IF(D31&gt;150, $E$19, $E$18))</f>
+        <v>0.12</v>
+      </c>
+      <c r="E35" s="7">
+        <f>IF(E31&lt;75, $F$17, IF(E31&gt;150, $F$19, $F$18))</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="7">
+        <f>IF(C32&lt;75, $D$17, IF(C32&gt;150, $D$19, $D$18))</f>
+        <v>0.23</v>
+      </c>
+      <c r="D36" s="7">
+        <f>IF(D32&lt;75, $E$17, IF(D32&gt;150, $E$19, $E$18))</f>
+        <v>0.12</v>
+      </c>
+      <c r="E36" s="7">
+        <f>IF(E32&lt;75, $F$17, IF(E32&gt;150, $F$19, $F$18))</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="8">
+        <f t="shared" ref="C37:E38" si="4">C33*C35</f>
+        <v>11.040000000000001</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" si="4"/>
+        <v>0.69</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="4"/>
+        <v>43.45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="8">
+        <f t="shared" si="4"/>
+        <v>14.352</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="4"/>
+        <v>2.76</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C27/$D$12</f>
-        <v>0.333814</v>
-      </c>
-      <c r="E13" s="3">
-        <f>D27/$D$12</f>
-        <v>0.31577000000000005</v>
-      </c>
-      <c r="F13" s="3">
-        <f>E27/$D$12</f>
-        <v>0.35602200000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>0.5</v>
-      </c>
-      <c r="F15">
-        <v>7.5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>0.48</v>
-      </c>
-      <c r="E16">
-        <v>0.46</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17">
-        <v>130</v>
-      </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="F17">
-        <v>200</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18">
-        <v>60</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2">
-        <f>C23*D2*D3*D4</f>
-        <v>55.862400000000001</v>
-      </c>
-      <c r="D21" s="2">
-        <f>D23*E2*E3*E4</f>
-        <v>39.1248</v>
-      </c>
-      <c r="E21" s="2">
-        <f>E23*F2*F3*F4</f>
-        <v>75.55680000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="2">
-        <f>C23*D5</f>
-        <v>72.16</v>
-      </c>
-      <c r="D22" s="2">
-        <f>D23*E5</f>
-        <v>57.199999999999989</v>
-      </c>
-      <c r="E22" s="2">
-        <f>E23*F5</f>
-        <v>87.12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>88</v>
-      </c>
-      <c r="D23" s="2">
-        <v>88</v>
-      </c>
-      <c r="E23" s="2">
-        <v>88</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2">
-        <f>D7*$B$3</f>
-        <v>6.24</v>
-      </c>
-      <c r="D24" s="2">
-        <f>E7*$B$3</f>
-        <v>0.96</v>
-      </c>
-      <c r="E24" s="2">
-        <f>F7*$B$3</f>
-        <v>14.879999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>31</v>
-      </c>
-      <c r="F25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="2">
-        <f>D13*$B$3</f>
-        <v>8.0115359999999995</v>
-      </c>
-      <c r="D26" s="2">
-        <f>E13*$B$3</f>
-        <v>7.5784800000000008</v>
-      </c>
-      <c r="E26" s="2">
-        <f>F13*$B$3</f>
-        <v>8.5445280000000015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="2">
-        <f>$D$8*D11</f>
-        <v>16.6907</v>
-      </c>
-      <c r="D27" s="2">
-        <f>$D$8*E11</f>
-        <v>15.788500000000003</v>
-      </c>
-      <c r="E27" s="2">
-        <f>$D$8*F11</f>
-        <v>17.801100000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="2">
-        <f>D16*(D14*20+D15*4)</f>
-        <v>46.08</v>
-      </c>
-      <c r="D28" s="2">
-        <f>E16*(E14*20+E15*4)</f>
-        <v>5.5200000000000005</v>
-      </c>
-      <c r="E28" s="2">
-        <f>F16*(F14*20+F15*4)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="2">
-        <f>D16*D17</f>
-        <v>62.4</v>
-      </c>
-      <c r="D29" s="2">
-        <f>E16*E17</f>
-        <v>23</v>
-      </c>
-      <c r="E29" s="2">
-        <f>F16*F17</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2">
-        <f>$C$22+$C$24+$C$26+$C$28</f>
-        <v>132.491536</v>
-      </c>
-      <c r="D30" s="2">
-        <f>$D$22+$D$24+$D$26+$D$28</f>
-        <v>71.258479999999992</v>
-      </c>
-      <c r="E30" s="2">
-        <f>$E$22+$E$24+$E$26+$E$28</f>
-        <v>205.54452800000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+      <c r="C39" s="8">
+        <f t="shared" ref="C39:E40" si="5">C23+C25+C27+C33+C37</f>
+        <v>145.9933</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="5"/>
+        <v>72.169899999999984</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="5"/>
+        <v>253.84199999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="2">
-        <f>$C$23+$C$25+$C$27+$C$29</f>
-        <v>180.0907</v>
-      </c>
-      <c r="D31" s="2">
-        <f>$D$23+$D$25+$D$27+$D$29</f>
-        <v>128.7885</v>
-      </c>
-      <c r="E31" s="2">
-        <f>$E$23+$E$25+$E$27+$E$29</f>
-        <v>236.80109999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2">
-        <f>$C$22*(12/30)+$C$24+$C$26+$C$28</f>
-        <v>89.195536000000004</v>
-      </c>
-      <c r="D32" s="2">
-        <f>$D$22*(12/30)+$D$24+$D$26+$D$28</f>
-        <v>36.938479999999998</v>
-      </c>
-      <c r="E32" s="2">
-        <f>$E$22*(12/30)+$E$24+$E$26+$E$28</f>
-        <v>153.27252800000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2">
-        <f>$C$23*(12/30)+$C$25+$C$27+$C$29</f>
-        <v>127.29070000000002</v>
-      </c>
-      <c r="D33" s="2">
-        <f>$D$23*(12/30)+$D$25+$D$27+$D$29</f>
-        <v>75.988500000000002</v>
-      </c>
-      <c r="E33" s="2">
-        <f>$E$23*(12/30)+$E$25+$E$27+$E$29</f>
-        <v>184.00110000000001</v>
+      <c r="C40" s="8">
+        <f t="shared" si="5"/>
+        <v>194.33860000000001</v>
+      </c>
+      <c r="D40" s="8">
+        <f>D24+D26+D28+D34+D38</f>
+        <v>130.81979999999999</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="5"/>
+        <v>281.04399999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1170,10 +1417,322 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E7DBA-8DFD-4420-810D-ADC70A6F6B52}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>47.2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>377.6</v>
+      </c>
+      <c r="E3">
+        <v>45.9</v>
+      </c>
+      <c r="F3">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>47.8</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="0">B4*C4</f>
+        <v>1003.8</v>
+      </c>
+      <c r="E4">
+        <v>45.8</v>
+      </c>
+      <c r="F4">
+        <v>48.8</v>
+      </c>
+      <c r="G4">
+        <v>48.4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I7" si="1">G4*H4</f>
+        <v>193.6</v>
+      </c>
+      <c r="J4">
+        <v>48.2</v>
+      </c>
+      <c r="K4">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>47.7</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1192.5</v>
+      </c>
+      <c r="E5">
+        <v>43.4</v>
+      </c>
+      <c r="F5">
+        <v>50.4</v>
+      </c>
+      <c r="G5">
+        <v>48.1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>192.4</v>
+      </c>
+      <c r="J5">
+        <v>47.8</v>
+      </c>
+      <c r="K5">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>48.1</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1539.2</v>
+      </c>
+      <c r="E6">
+        <v>45.5</v>
+      </c>
+      <c r="F6">
+        <v>51.3</v>
+      </c>
+      <c r="G6">
+        <v>48</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="J6">
+        <v>46.8</v>
+      </c>
+      <c r="K6">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>47.4</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>805.8</v>
+      </c>
+      <c r="E7">
+        <v>44.2</v>
+      </c>
+      <c r="F7">
+        <v>49.6</v>
+      </c>
+      <c r="G7">
+        <v>49.4</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>49.4</v>
+      </c>
+      <c r="J7">
+        <v>49.4</v>
+      </c>
+      <c r="K7">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>47.3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>189.2</v>
+      </c>
+      <c r="E8">
+        <v>43.8</v>
+      </c>
+      <c r="F8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C3:C8)</f>
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D3:D8)</f>
+        <v>5108.1000000000004</v>
+      </c>
+      <c r="H9">
+        <f>SUM(H3:H8)</f>
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <f>SUM(I3:I8)</f>
+        <v>531.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10">
+        <f>C9+H9</f>
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <f>D9+I9</f>
+        <v>5639.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="4">
+        <f>D10/C10/100</f>
+        <v>0.47792372881355932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <f>MIN(E3:E8,J4:J7)/100</f>
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13">
+        <f>MAX(F3:F8,K4:K7)/100</f>
+        <v>0.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B88190-6FA7-43C6-8927-D04E5F92F0A3}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
